--- a/html/resources/ioaConditions/train1P2Block7Test.xlsx
+++ b/html/resources/ioaConditions/train1P2Block7Test.xlsx
@@ -34,25 +34,25 @@
     <t>falsePos</t>
   </si>
   <si>
-    <t>trainingaudio/13_kopopi3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/03_kikita1.wav</t>
+    <t>trainingaudio/94_kipipi1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/05_titopo1.wav</t>
+  </si>
+  <si>
+    <t>pngimages/94_house.png</t>
+  </si>
+  <si>
+    <t>pngimages/05_megaphone.png</t>
+  </si>
+  <si>
+    <t>train1P2</t>
+  </si>
+  <si>
+    <t>pngimages/24_banana.png</t>
   </si>
   <si>
     <t>pngimages/13_toast.png</t>
-  </si>
-  <si>
-    <t>pngimages/03_box.png</t>
-  </si>
-  <si>
-    <t>train1P2</t>
-  </si>
-  <si>
-    <t>pngimages/01_gift.png</t>
-  </si>
-  <si>
-    <t>pngimages/19_burger.png</t>
   </si>
 </sst>
 </file>
@@ -450,10 +450,10 @@
         <v>11</v>
       </c>
       <c r="E2">
+        <v>0.5</v>
+      </c>
+      <c r="F2">
         <v>-0.5</v>
-      </c>
-      <c r="F2">
-        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:6">

--- a/html/resources/ioaConditions/train1P2Block7Test.xlsx
+++ b/html/resources/ioaConditions/train1P2Block7Test.xlsx
@@ -34,10 +34,10 @@
     <t>falsePos</t>
   </si>
   <si>
-    <t>trainingaudio/94_kipipi1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/05_titopo1.wav</t>
+    <t>trainingaudio/94_kipipi1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/05_titopo1.mp3</t>
   </si>
   <si>
     <t>pngimages/94_house.png</t>

--- a/html/resources/ioaConditions/train1P2Block7Test.xlsx
+++ b/html/resources/ioaConditions/train1P2Block7Test.xlsx
@@ -34,10 +34,10 @@
     <t>falsePos</t>
   </si>
   <si>
-    <t>trainingaudio/94_kipipi1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/05_titopo1.mp3</t>
+    <t>trainingaudio/94_kipipi1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/05_titopo1.ogg</t>
   </si>
   <si>
     <t>pngimages/94_house.png</t>

--- a/html/resources/ioaConditions/train1P2Block7Test.xlsx
+++ b/html/resources/ioaConditions/train1P2Block7Test.xlsx
@@ -34,10 +34,10 @@
     <t>falsePos</t>
   </si>
   <si>
-    <t>trainingaudio/94_kipipi1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/05_titopo1.ogg</t>
+    <t>trainingaudio/94_kipipi1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/05_titopo1.wav</t>
   </si>
   <si>
     <t>pngimages/94_house.png</t>
